--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/Protocol</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/protocol</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/Protocol</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/protocol</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-protocol.xlsx
+++ b/main/ig/StructureDefinition-protocol.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$158</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5546" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5690" uniqueCount="768">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,7 +461,7 @@
 </t>
   </si>
   <si>
-    <t>The cycle number of the chemotherapy treatment</t>
+    <t>Treatment cycle number</t>
   </si>
   <si>
     <t>Treatment cycle number.</t>
@@ -477,7 +477,7 @@
 </t>
   </si>
   <si>
-    <t>The day number of the chemotherapy treatment</t>
+    <t>Treatment day number</t>
   </si>
   <si>
     <t>Treatment day number.</t>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t>The date on which the protocol starts</t>
+    <t>Date last changed</t>
   </si>
   <si>
     <t>The date  (and optionally time) when the plan definition was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the plan definition changes.</t>
@@ -1216,6 +1216,55 @@
   </si>
   <si>
     <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>PlanDefinition.effectivePeriod.id</t>
+  </si>
+  <si>
+    <t>PlanDefinition.effectivePeriod.extension</t>
+  </si>
+  <si>
+    <t>PlanDefinition.effectivePeriod.start</t>
+  </si>
+  <si>
+    <t>The date on which the protocol starts</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>PlanDefinition.effectivePeriod.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>PlanDefinition.topic</t>
@@ -2659,7 +2708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN154"/>
+  <dimension ref="A1:AN158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6266,13 +6315,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>74</v>
@@ -7761,7 +7810,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -7773,20 +7822,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7810,13 +7855,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7834,28 +7879,28 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7863,14 +7908,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7889,15 +7934,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>181</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -7934,19 +7981,19 @@
         <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7958,7 +8005,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -7967,7 +8014,7 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>179</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7975,10 +8022,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7986,30 +8033,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -8058,16 +8107,16 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -8079,7 +8128,7 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -8087,10 +8136,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8101,7 +8150,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -8110,25 +8159,27 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="R48" t="s" s="2">
         <v>74</v>
       </c>
@@ -8172,16 +8223,16 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -8193,7 +8244,7 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -8201,10 +8252,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8227,18 +8278,20 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -8262,13 +8315,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -8286,7 +8339,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -8301,13 +8354,13 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>404</v>
+        <v>240</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -8315,10 +8368,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8341,7 +8394,7 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>410</v>
@@ -8349,12 +8402,8 @@
       <c r="M50" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -8402,7 +8451,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -8423,7 +8472,7 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -8431,10 +8480,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8457,13 +8506,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8514,7 +8563,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -8535,7 +8584,7 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -8543,10 +8592,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8569,18 +8618,18 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -8628,7 +8677,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8637,7 +8686,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>96</v>
@@ -8649,7 +8698,7 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -8657,10 +8706,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8671,7 +8720,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -8683,15 +8732,17 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -8740,19 +8791,19 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>177</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -8761,7 +8812,7 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>179</v>
+        <v>420</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -8769,14 +8820,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8795,18 +8846,20 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>182</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8854,7 +8907,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8866,7 +8919,7 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -8875,7 +8928,7 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>179</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8883,14 +8936,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8903,26 +8956,22 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8982,7 +9031,7 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -8991,7 +9040,7 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>74</v>
@@ -8999,10 +9048,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9013,7 +9062,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -9025,16 +9074,18 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -9058,40 +9109,40 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>96</v>
@@ -9111,10 +9162,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9122,7 +9173,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -9137,17 +9188,15 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>175</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -9172,13 +9221,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -9196,19 +9245,19 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -9217,7 +9266,7 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -9225,21 +9274,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -9251,15 +9300,17 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>444</v>
+        <v>181</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -9284,13 +9335,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -9308,19 +9359,19 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -9329,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -9337,42 +9388,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -9396,13 +9451,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>453</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -9420,19 +9475,19 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -9441,7 +9496,7 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -9449,10 +9504,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9463,7 +9518,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -9478,10 +9533,10 @@
         <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9508,13 +9563,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -9532,13 +9587,13 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
@@ -9561,10 +9616,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9572,10 +9627,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -9587,15 +9642,17 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -9620,13 +9677,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -9644,13 +9701,13 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
@@ -9673,10 +9730,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9687,7 +9744,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -9699,13 +9756,13 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9732,13 +9789,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9756,13 +9813,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
@@ -9811,13 +9868,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>175</v>
+        <v>466</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>176</v>
+        <v>467</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9844,13 +9901,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9868,7 +9925,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>177</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9877,10 +9934,10 @@
         <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
@@ -9889,7 +9946,7 @@
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9897,14 +9954,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9923,17 +9980,15 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>181</v>
+        <v>471</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -9958,13 +10013,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>473</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9982,7 +10037,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>184</v>
+        <v>470</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9994,7 +10049,7 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -10003,7 +10058,7 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -10011,14 +10066,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10031,26 +10086,22 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -10098,7 +10149,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -10110,7 +10161,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -10119,7 +10170,7 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -10127,10 +10178,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10141,7 +10192,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -10153,13 +10204,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10186,13 +10237,13 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -10210,13 +10261,13 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
@@ -10239,10 +10290,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10265,17 +10316,15 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>213</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -10324,7 +10373,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>473</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -10333,10 +10382,10 @@
         <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -10345,7 +10394,7 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -10353,21 +10402,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -10379,15 +10428,17 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>479</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>480</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -10436,19 +10487,19 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -10457,7 +10508,7 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10465,14 +10516,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10485,22 +10536,26 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
       </c>
@@ -10548,7 +10603,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10560,7 +10615,7 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -10569,7 +10624,7 @@
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>485</v>
+        <v>129</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10577,10 +10632,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10603,13 +10658,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>175</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10636,13 +10691,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10660,7 +10715,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>177</v>
+        <v>484</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10669,10 +10724,10 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -10681,7 +10736,7 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10689,21 +10744,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -10715,16 +10770,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>490</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>181</v>
+        <v>491</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>182</v>
+        <v>492</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10774,19 +10829,19 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>184</v>
+        <v>489</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -10795,7 +10850,7 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -10803,46 +10858,42 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>495</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
@@ -10890,19 +10941,19 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -10911,7 +10962,7 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -10919,10 +10970,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10933,7 +10984,7 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10945,13 +10996,13 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11002,13 +11053,13 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>74</v>
@@ -11023,7 +11074,7 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>240</v>
+        <v>501</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -11031,10 +11082,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11057,13 +11108,13 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>493</v>
+        <v>175</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>494</v>
+        <v>176</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11114,7 +11165,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>492</v>
+        <v>177</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -11123,10 +11174,10 @@
         <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -11135,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -11143,18 +11194,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -11169,15 +11220,17 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>496</v>
+        <v>181</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -11226,10 +11279,10 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>495</v>
+        <v>184</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -11238,7 +11291,7 @@
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -11247,7 +11300,7 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>74</v>
@@ -11255,42 +11308,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -11338,19 +11395,19 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -11359,7 +11416,7 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>74</v>
@@ -11367,21 +11424,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -11393,17 +11450,15 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -11452,19 +11507,19 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -11473,7 +11528,7 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>74</v>
@@ -11481,46 +11536,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -11568,19 +11619,19 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>431</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -11589,7 +11640,7 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>74</v>
@@ -11597,10 +11648,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11608,10 +11659,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -11623,13 +11674,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11656,13 +11707,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -11680,13 +11731,13 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
@@ -11701,7 +11752,7 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>506</v>
+        <v>240</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11709,10 +11760,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11735,13 +11786,13 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>508</v>
+        <v>213</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>509</v>
+        <v>175</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>503</v>
+        <v>176</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11792,7 +11843,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>507</v>
+        <v>177</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11801,10 +11852,10 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
@@ -11813,7 +11864,7 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11821,21 +11872,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -11847,16 +11898,16 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>511</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>503</v>
+        <v>182</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>512</v>
+        <v>153</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11906,19 +11957,19 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>510</v>
+        <v>184</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -11927,7 +11978,7 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11935,42 +11986,46 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11994,11 +12049,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -12016,19 +12073,19 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -12037,7 +12094,7 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>
@@ -12059,7 +12116,7 @@
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -12071,7 +12128,7 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>518</v>
@@ -12079,9 +12136,7 @@
       <c r="M83" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -12106,13 +12161,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>74</v>
+        <v>520</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>74</v>
+        <v>521</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -12136,22 +12191,22 @@
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>74</v>
@@ -12159,10 +12214,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12185,13 +12240,13 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>176</v>
+        <v>519</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12242,7 +12297,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>177</v>
+        <v>523</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -12251,10 +12306,10 @@
         <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -12263,7 +12318,7 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>74</v>
@@ -12271,21 +12326,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -12297,16 +12352,16 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>132</v>
+        <v>527</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>181</v>
+        <v>525</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>182</v>
+        <v>519</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>153</v>
+        <v>528</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12356,19 +12411,19 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
@@ -12377,7 +12432,7 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>74</v>
@@ -12385,46 +12440,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>429</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
       </c>
@@ -12448,13 +12499,11 @@
         <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>74</v>
+        <v>532</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>74</v>
@@ -12472,19 +12521,19 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>431</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
@@ -12493,7 +12542,7 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>74</v>
@@ -12501,10 +12550,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12515,7 +12564,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -12527,15 +12576,17 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>74</v>
@@ -12584,28 +12635,28 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>537</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>74</v>
+        <v>538</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>240</v>
+        <v>539</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>74</v>
@@ -12613,10 +12664,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12642,10 +12693,10 @@
         <v>213</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>531</v>
+        <v>175</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>532</v>
+        <v>176</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12696,7 +12747,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>530</v>
+        <v>177</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -12705,10 +12756,10 @@
         <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -12717,7 +12768,7 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>74</v>
@@ -12725,21 +12776,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
@@ -12751,15 +12802,17 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -12808,28 +12861,28 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>533</v>
+        <v>184</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>74</v>
@@ -12837,42 +12890,46 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12920,28 +12977,28 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>535</v>
+        <v>447</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>74</v>
@@ -12949,10 +13006,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12975,13 +13032,13 @@
         <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13032,7 +13089,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -13047,13 +13104,13 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>74</v>
@@ -13061,10 +13118,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13087,13 +13144,13 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13120,13 +13177,13 @@
         <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>544</v>
+        <v>74</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>545</v>
+        <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
@@ -13144,7 +13201,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -13165,7 +13222,7 @@
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>546</v>
+        <v>240</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>74</v>
@@ -13173,10 +13230,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13199,13 +13256,13 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13232,13 +13289,13 @@
         <v>74</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>550</v>
+        <v>74</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>74</v>
@@ -13256,7 +13313,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -13271,13 +13328,13 @@
         <v>96</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>552</v>
+        <v>260</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>74</v>
@@ -13285,10 +13342,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13299,7 +13356,7 @@
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -13311,17 +13368,15 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -13346,13 +13401,13 @@
         <v>74</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>557</v>
+        <v>74</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>558</v>
+        <v>74</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>74</v>
@@ -13370,13 +13425,13 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>74</v>
@@ -13385,13 +13440,13 @@
         <v>96</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>559</v>
+        <v>326</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>74</v>
@@ -13399,10 +13454,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13413,7 +13468,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -13425,13 +13480,13 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13482,13 +13537,13 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
@@ -13497,13 +13552,13 @@
         <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>74</v>
@@ -13511,10 +13566,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13525,7 +13580,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -13537,13 +13592,13 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13570,13 +13625,13 @@
         <v>74</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>74</v>
+        <v>560</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>74</v>
+        <v>561</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>74</v>
@@ -13594,16 +13649,16 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>96</v>
@@ -13615,7 +13670,7 @@
         <v>74</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>240</v>
+        <v>562</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>74</v>
@@ -13623,10 +13678,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13649,53 +13704,47 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>74</v>
       </c>
@@ -13712,7 +13761,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -13727,13 +13776,13 @@
         <v>96</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>240</v>
+        <v>568</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>74</v>
@@ -13741,10 +13790,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13767,15 +13816,17 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>573</v>
+        <v>195</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>74</v>
@@ -13800,13 +13851,13 @@
         <v>74</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>74</v>
+        <v>573</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>74</v>
+        <v>574</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>74</v>
@@ -13824,7 +13875,7 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -13845,7 +13896,7 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>240</v>
+        <v>575</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>74</v>
@@ -13879,7 +13930,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>577</v>
@@ -13887,9 +13938,7 @@
       <c r="M99" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>579</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>74</v>
@@ -13967,10 +14016,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13981,7 +14030,7 @@
         <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -13993,13 +14042,13 @@
         <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>175</v>
+        <v>580</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14050,19 +14099,19 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>177</v>
+        <v>579</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>178</v>
+        <v>440</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>74</v>
@@ -14071,7 +14120,7 @@
         <v>74</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>74</v>
@@ -14079,21 +14128,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -14105,22 +14154,26 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>132</v>
+        <v>583</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>181</v>
+        <v>584</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>182</v>
+        <v>585</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="R101" t="s" s="2">
         <v>74</v>
       </c>
@@ -14140,13 +14193,13 @@
         <v>74</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>74</v>
@@ -14164,28 +14217,28 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>184</v>
+        <v>582</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>74</v>
@@ -14193,14 +14246,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14213,26 +14266,22 @@
         <v>74</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>132</v>
+        <v>589</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>74</v>
       </c>
@@ -14280,7 +14329,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>431</v>
+        <v>588</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -14292,7 +14341,7 @@
         <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>74</v>
@@ -14301,7 +14350,7 @@
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>74</v>
@@ -14309,10 +14358,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14320,10 +14369,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>74</v>
@@ -14335,16 +14384,16 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14370,13 +14419,13 @@
         <v>74</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>587</v>
+        <v>74</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>588</v>
+        <v>74</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
@@ -14394,13 +14443,13 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>74</v>
@@ -14423,10 +14472,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14449,17 +14498,15 @@
         <v>74</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>590</v>
+        <v>213</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>591</v>
+        <v>175</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -14508,7 +14555,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>589</v>
+        <v>177</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -14517,10 +14564,10 @@
         <v>84</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>74</v>
@@ -14529,7 +14576,7 @@
         <v>74</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>74</v>
@@ -14537,14 +14584,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14563,15 +14610,17 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>595</v>
+        <v>181</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>74</v>
@@ -14620,7 +14669,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>594</v>
+        <v>184</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -14632,7 +14681,7 @@
         <v>74</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>597</v>
+        <v>138</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>74</v>
@@ -14641,7 +14690,7 @@
         <v>74</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>74</v>
@@ -14656,35 +14705,39 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>74</v>
       </c>
@@ -14732,19 +14785,19 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
@@ -14753,7 +14806,7 @@
         <v>74</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>74</v>
@@ -14768,14 +14821,14 @@
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>74</v>
@@ -14787,16 +14840,16 @@
         <v>74</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>181</v>
+        <v>600</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>182</v>
+        <v>601</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>153</v>
+        <v>602</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14822,13 +14875,13 @@
         <v>74</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>74</v>
+        <v>603</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>74</v>
+        <v>604</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>74</v>
@@ -14846,19 +14899,19 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>184</v>
+        <v>599</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -14867,7 +14920,7 @@
         <v>74</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>74</v>
@@ -14875,46 +14928,44 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>132</v>
+        <v>606</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>429</v>
+        <v>607</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>430</v>
+        <v>608</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>74</v>
       </c>
@@ -14962,19 +15013,19 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>431</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>74</v>
@@ -14983,7 +15034,7 @@
         <v>74</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>74</v>
@@ -14991,10 +15042,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15005,7 +15056,7 @@
         <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>74</v>
@@ -15017,13 +15068,13 @@
         <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>490</v>
+        <v>611</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15074,19 +15125,19 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>613</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>74</v>
@@ -15103,10 +15154,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15129,13 +15180,13 @@
         <v>74</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>604</v>
+        <v>213</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>605</v>
+        <v>175</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>606</v>
+        <v>176</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15186,7 +15237,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>603</v>
+        <v>177</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -15195,10 +15246,10 @@
         <v>84</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>607</v>
+        <v>178</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>74</v>
@@ -15207,7 +15258,7 @@
         <v>74</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>74</v>
@@ -15215,21 +15266,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>74</v>
@@ -15241,16 +15292,16 @@
         <v>74</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>605</v>
+        <v>181</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>609</v>
+        <v>182</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>610</v>
+        <v>153</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15300,19 +15351,19 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>608</v>
+        <v>184</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>607</v>
+        <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>74</v>
@@ -15321,7 +15372,7 @@
         <v>74</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>74</v>
@@ -15329,14 +15380,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15349,22 +15400,26 @@
         <v>74</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>612</v>
+        <v>445</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>74</v>
       </c>
@@ -15412,7 +15467,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>611</v>
+        <v>447</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -15424,7 +15479,7 @@
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>614</v>
+        <v>138</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>74</v>
@@ -15433,7 +15488,7 @@
         <v>74</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>74</v>
@@ -15441,10 +15496,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15470,10 +15525,10 @@
         <v>213</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>175</v>
+        <v>506</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>176</v>
+        <v>618</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15524,7 +15579,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>177</v>
+        <v>617</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -15533,10 +15588,10 @@
         <v>84</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>74</v>
@@ -15545,7 +15600,7 @@
         <v>74</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>74</v>
@@ -15553,21 +15608,21 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>74</v>
@@ -15579,17 +15634,15 @@
         <v>74</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>132</v>
+        <v>620</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>181</v>
+        <v>621</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>74</v>
@@ -15638,19 +15691,19 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>184</v>
+        <v>619</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -15659,7 +15712,7 @@
         <v>74</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>74</v>
@@ -15667,46 +15720,44 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>429</v>
+        <v>621</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>430</v>
+        <v>625</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>74</v>
       </c>
@@ -15754,19 +15805,19 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>431</v>
+        <v>624</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -15775,7 +15826,7 @@
         <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>74</v>
@@ -15783,10 +15834,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15797,7 +15848,7 @@
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>74</v>
@@ -15809,13 +15860,13 @@
         <v>74</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>490</v>
+        <v>628</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15866,19 +15917,19 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>96</v>
+        <v>630</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>74</v>
@@ -15895,10 +15946,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15921,13 +15972,13 @@
         <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>604</v>
+        <v>213</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>605</v>
+        <v>175</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>620</v>
+        <v>176</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15978,7 +16029,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>619</v>
+        <v>177</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -15987,10 +16038,10 @@
         <v>84</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>621</v>
+        <v>178</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>74</v>
@@ -15999,7 +16050,7 @@
         <v>74</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>74</v>
@@ -16007,21 +16058,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
@@ -16033,16 +16084,16 @@
         <v>74</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>605</v>
+        <v>181</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>623</v>
+        <v>182</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>624</v>
+        <v>153</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16092,19 +16143,19 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>622</v>
+        <v>184</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>621</v>
+        <v>74</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>74</v>
@@ -16113,7 +16164,7 @@
         <v>74</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>74</v>
@@ -16121,14 +16172,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16141,24 +16192,26 @@
         <v>74</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>626</v>
+        <v>445</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>627</v>
+        <v>446</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>74</v>
       </c>
@@ -16206,7 +16259,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>625</v>
+        <v>447</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
@@ -16215,10 +16268,10 @@
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>629</v>
+        <v>74</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>74</v>
@@ -16227,7 +16280,7 @@
         <v>74</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>74</v>
@@ -16235,10 +16288,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16264,10 +16317,10 @@
         <v>213</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>175</v>
+        <v>506</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>176</v>
+        <v>618</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16318,7 +16371,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -16327,10 +16380,10 @@
         <v>84</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>74</v>
@@ -16339,7 +16392,7 @@
         <v>74</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>74</v>
@@ -16347,21 +16400,21 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
@@ -16373,17 +16426,15 @@
         <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>132</v>
+        <v>620</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>181</v>
+        <v>621</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>74</v>
@@ -16432,19 +16483,19 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>184</v>
+        <v>635</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>74</v>
+        <v>637</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>74</v>
@@ -16453,7 +16504,7 @@
         <v>74</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>74</v>
@@ -16461,46 +16512,44 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>429</v>
+        <v>621</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>430</v>
+        <v>639</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>74</v>
       </c>
@@ -16548,19 +16597,19 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>431</v>
+        <v>638</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>74</v>
+        <v>637</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>74</v>
@@ -16569,7 +16618,7 @@
         <v>74</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>74</v>
@@ -16577,10 +16626,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16588,10 +16637,10 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>74</v>
@@ -16603,15 +16652,17 @@
         <v>74</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>74</v>
@@ -16660,16 +16711,16 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>96</v>
@@ -16689,10 +16740,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16700,7 +16751,7 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>84</v>
@@ -16715,13 +16766,13 @@
         <v>74</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>637</v>
+        <v>175</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>638</v>
+        <v>176</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16748,13 +16799,13 @@
         <v>74</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>639</v>
+        <v>74</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>640</v>
+        <v>74</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>74</v>
@@ -16772,19 +16823,19 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>636</v>
+        <v>177</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>74</v>
@@ -16793,7 +16844,7 @@
         <v>74</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>74</v>
@@ -16801,21 +16852,21 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>74</v>
@@ -16827,15 +16878,17 @@
         <v>74</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>637</v>
+        <v>181</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>74</v>
@@ -16860,13 +16913,13 @@
         <v>74</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>639</v>
+        <v>74</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>640</v>
+        <v>74</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>74</v>
@@ -16884,19 +16937,19 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>641</v>
+        <v>184</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>74</v>
@@ -16905,7 +16958,7 @@
         <v>74</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>74</v>
@@ -16913,42 +16966,46 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>644</v>
+        <v>132</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>645</v>
+        <v>445</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>74</v>
       </c>
@@ -16996,19 +17053,19 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>643</v>
+        <v>447</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>74</v>
@@ -17017,7 +17074,7 @@
         <v>74</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>74</v>
@@ -17025,10 +17082,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17036,7 +17093,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>84</v>
@@ -17051,20 +17108,16 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>648</v>
+        <v>86</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N127" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="O127" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>74</v>
       </c>
@@ -17112,16 +17165,16 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>74</v>
+        <v>645</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>96</v>
@@ -17133,7 +17186,7 @@
         <v>74</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>653</v>
+        <v>240</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>74</v>
@@ -17141,18 +17194,18 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>655</v>
+        <v>74</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>84</v>
@@ -17167,20 +17220,16 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>656</v>
+        <v>104</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>74</v>
       </c>
@@ -17204,13 +17253,13 @@
         <v>74</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>74</v>
+        <v>655</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>74</v>
+        <v>656</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>74</v>
@@ -17228,10 +17277,10 @@
         <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>84</v>
@@ -17249,7 +17298,7 @@
         <v>74</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>661</v>
+        <v>240</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>74</v>
@@ -17257,10 +17306,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17271,7 +17320,7 @@
         <v>75</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>74</v>
@@ -17283,13 +17332,13 @@
         <v>74</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17316,13 +17365,13 @@
         <v>74</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>74</v>
+        <v>655</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>74</v>
+        <v>656</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>74</v>
@@ -17340,13 +17389,13 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>74</v>
@@ -17361,7 +17410,7 @@
         <v>74</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>485</v>
+        <v>240</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>74</v>
@@ -17369,10 +17418,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17395,13 +17444,13 @@
         <v>74</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>213</v>
+        <v>660</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>175</v>
+        <v>661</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>176</v>
+        <v>662</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17452,7 +17501,7 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>177</v>
+        <v>659</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -17461,10 +17510,10 @@
         <v>84</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>74</v>
@@ -17473,7 +17522,7 @@
         <v>74</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>74</v>
@@ -17481,21 +17530,21 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>74</v>
@@ -17507,18 +17556,20 @@
         <v>74</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>132</v>
+        <v>664</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>181</v>
+        <v>665</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>182</v>
+        <v>666</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>74</v>
       </c>
@@ -17566,19 +17617,19 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>184</v>
+        <v>663</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>74</v>
@@ -17587,7 +17638,7 @@
         <v>74</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>179</v>
+        <v>669</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>74</v>
@@ -17595,45 +17646,45 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>428</v>
+        <v>671</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>132</v>
+        <v>672</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>429</v>
+        <v>673</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>430</v>
+        <v>674</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>153</v>
+        <v>675</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>154</v>
+        <v>676</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>74</v>
@@ -17682,19 +17733,19 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>431</v>
+        <v>670</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>74</v>
@@ -17703,7 +17754,7 @@
         <v>74</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>129</v>
+        <v>677</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>74</v>
@@ -17711,10 +17762,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17725,7 +17776,7 @@
         <v>75</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>74</v>
@@ -17737,13 +17788,13 @@
         <v>74</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17794,13 +17845,13 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>74</v>
@@ -17815,7 +17866,7 @@
         <v>74</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>240</v>
+        <v>501</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>74</v>
@@ -17823,10 +17874,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17849,13 +17900,13 @@
         <v>74</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>502</v>
+        <v>175</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>503</v>
+        <v>176</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17882,13 +17933,13 @@
         <v>74</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>74</v>
@@ -17906,7 +17957,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>671</v>
+        <v>177</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -17915,10 +17966,10 @@
         <v>84</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>74</v>
@@ -17927,7 +17978,7 @@
         <v>74</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>74</v>
@@ -17935,21 +17986,21 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>74</v>
@@ -17961,15 +18012,17 @@
         <v>74</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>508</v>
+        <v>132</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>74</v>
@@ -18018,19 +18071,19 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>672</v>
+        <v>184</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>74</v>
@@ -18039,7 +18092,7 @@
         <v>74</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>74</v>
@@ -18047,44 +18100,46 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>511</v>
+        <v>132</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O136" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P136" t="s" s="2">
         <v>74</v>
       </c>
@@ -18132,19 +18187,19 @@
         <v>74</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>673</v>
+        <v>447</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>74</v>
@@ -18153,7 +18208,7 @@
         <v>74</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>506</v>
+        <v>129</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>74</v>
@@ -18161,10 +18216,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18187,13 +18242,13 @@
         <v>74</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>514</v>
+        <v>685</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>515</v>
+        <v>686</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18220,13 +18275,13 @@
         <v>74</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>675</v>
+        <v>74</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>74</v>
@@ -18244,7 +18299,7 @@
         <v>74</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>75</v>
@@ -18265,7 +18320,7 @@
         <v>74</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>676</v>
+        <v>240</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>74</v>
@@ -18273,10 +18328,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18299,13 +18354,13 @@
         <v>74</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>679</v>
+        <v>519</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -18332,11 +18387,13 @@
         <v>74</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y138" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="Z138" t="s" s="2">
-        <v>680</v>
+        <v>521</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>74</v>
@@ -18354,7 +18411,7 @@
         <v>74</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>75</v>
@@ -18375,7 +18432,7 @@
         <v>74</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>676</v>
+        <v>522</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>74</v>
@@ -18383,10 +18440,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18409,13 +18466,13 @@
         <v>74</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>195</v>
+        <v>524</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>683</v>
+        <v>519</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -18442,13 +18499,13 @@
         <v>74</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>685</v>
+        <v>74</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>74</v>
@@ -18466,7 +18523,7 @@
         <v>74</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>75</v>
@@ -18487,7 +18544,7 @@
         <v>74</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>686</v>
+        <v>522</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>74</v>
@@ -18495,10 +18552,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18521,22 +18578,22 @@
         <v>74</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>688</v>
+        <v>525</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q140" t="s" s="2">
-        <v>690</v>
-      </c>
+      <c r="Q140" s="2"/>
       <c r="R140" t="s" s="2">
         <v>74</v>
       </c>
@@ -18556,13 +18613,13 @@
         <v>74</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>691</v>
+        <v>74</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>692</v>
+        <v>74</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>74</v>
@@ -18580,7 +18637,7 @@
         <v>74</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -18601,7 +18658,7 @@
         <v>74</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>129</v>
+        <v>522</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>74</v>
@@ -18609,10 +18666,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18635,22 +18692,20 @@
         <v>74</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>694</v>
+        <v>530</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>695</v>
+        <v>531</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q141" t="s" s="2">
-        <v>696</v>
-      </c>
+      <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
         <v>74</v>
       </c>
@@ -18670,13 +18725,13 @@
         <v>74</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>698</v>
+        <v>532</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>74</v>
@@ -18694,7 +18749,7 @@
         <v>74</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>75</v>
@@ -18715,7 +18770,7 @@
         <v>74</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>129</v>
+        <v>692</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>74</v>
@@ -18723,10 +18778,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18749,22 +18804,20 @@
         <v>74</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q142" t="s" s="2">
-        <v>702</v>
-      </c>
+      <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
         <v>74</v>
       </c>
@@ -18784,13 +18837,11 @@
         <v>74</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="Y142" s="2"/>
       <c r="Z142" t="s" s="2">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>74</v>
@@ -18808,7 +18859,7 @@
         <v>74</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>75</v>
@@ -18829,7 +18880,7 @@
         <v>74</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>129</v>
+        <v>692</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>74</v>
@@ -18837,10 +18888,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18863,22 +18914,20 @@
         <v>74</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q143" t="s" s="2">
-        <v>708</v>
-      </c>
+      <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
         <v>74</v>
       </c>
@@ -18898,13 +18947,13 @@
         <v>74</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>74</v>
@@ -18922,7 +18971,7 @@
         <v>74</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>75</v>
@@ -18943,7 +18992,7 @@
         <v>74</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>129</v>
+        <v>702</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>74</v>
@@ -18951,10 +19000,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18980,10 +19029,10 @@
         <v>104</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18991,7 +19040,7 @@
         <v>74</v>
       </c>
       <c r="Q144" t="s" s="2">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>74</v>
@@ -19015,10 +19064,10 @@
         <v>108</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>74</v>
@@ -19036,7 +19085,7 @@
         <v>74</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>75</v>
@@ -19065,10 +19114,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19091,22 +19140,22 @@
         <v>74</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>718</v>
+        <v>104</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>721</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="R145" t="s" s="2">
         <v>74</v>
       </c>
@@ -19126,13 +19175,13 @@
         <v>74</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>74</v>
+        <v>714</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>74</v>
@@ -19150,7 +19199,7 @@
         <v>74</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
@@ -19171,7 +19220,7 @@
         <v>74</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>523</v>
+        <v>129</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>74</v>
@@ -19179,10 +19228,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19205,22 +19254,22 @@
         <v>74</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>723</v>
+        <v>104</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>726</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="R146" t="s" s="2">
         <v>74</v>
       </c>
@@ -19240,13 +19289,13 @@
         <v>74</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>74</v>
+        <v>719</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>74</v>
+        <v>720</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>74</v>
@@ -19264,7 +19313,7 @@
         <v>74</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
@@ -19293,10 +19342,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19307,7 +19356,7 @@
         <v>75</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>74</v>
@@ -19319,22 +19368,22 @@
         <v>74</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>730</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="R147" t="s" s="2">
         <v>74</v>
       </c>
@@ -19354,13 +19403,13 @@
         <v>74</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>74</v>
+        <v>725</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>74</v>
+        <v>726</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>74</v>
@@ -19378,13 +19427,13 @@
         <v>74</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>74</v>
@@ -19407,10 +19456,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19433,20 +19482,22 @@
         <v>74</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>175</v>
+        <v>728</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>176</v>
+        <v>729</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="R148" t="s" s="2">
         <v>74</v>
       </c>
@@ -19466,13 +19517,13 @@
         <v>74</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>74</v>
+        <v>731</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>74</v>
+        <v>732</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>74</v>
@@ -19490,7 +19541,7 @@
         <v>74</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>177</v>
+        <v>727</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>
@@ -19499,10 +19550,10 @@
         <v>84</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>74</v>
@@ -19511,7 +19562,7 @@
         <v>74</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>74</v>
@@ -19519,21 +19570,21 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>74</v>
@@ -19545,16 +19596,16 @@
         <v>74</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>132</v>
+        <v>734</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>181</v>
+        <v>735</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>182</v>
+        <v>736</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>153</v>
+        <v>737</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -19604,19 +19655,19 @@
         <v>74</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>184</v>
+        <v>733</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>74</v>
@@ -19625,7 +19676,7 @@
         <v>74</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>179</v>
+        <v>539</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>74</v>
@@ -19633,46 +19684,44 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>132</v>
+        <v>739</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>429</v>
+        <v>740</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>430</v>
+        <v>741</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>74</v>
       </c>
@@ -19720,19 +19769,19 @@
         <v>74</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>431</v>
+        <v>738</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>74</v>
@@ -19749,10 +19798,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19763,7 +19812,7 @@
         <v>75</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>74</v>
@@ -19775,16 +19824,16 @@
         <v>74</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -19834,13 +19883,13 @@
         <v>74</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>74</v>
@@ -19863,10 +19912,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19889,17 +19938,15 @@
         <v>74</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>590</v>
+        <v>213</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>739</v>
+        <v>175</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>74</v>
@@ -19948,7 +19995,7 @@
         <v>74</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>738</v>
+        <v>177</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>75</v>
@@ -19957,10 +20004,10 @@
         <v>84</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>74</v>
@@ -19969,7 +20016,7 @@
         <v>74</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>74</v>
@@ -19977,14 +20024,14 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -20003,15 +20050,17 @@
         <v>74</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>742</v>
+        <v>181</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>74</v>
@@ -20060,7 +20109,7 @@
         <v>74</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>741</v>
+        <v>184</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>75</v>
@@ -20072,16 +20121,16 @@
         <v>74</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>744</v>
+        <v>74</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>74</v>
@@ -20089,42 +20138,46 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J154" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>746</v>
+        <v>132</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>747</v>
+        <v>445</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P154" t="s" s="2">
         <v>74</v>
       </c>
@@ -20148,59 +20201,511 @@
         <v>74</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>749</v>
+        <v>74</v>
       </c>
       <c r="Z154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="AA154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
+      <c r="B155" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="AN154" t="s" s="2">
+      <c r="AK155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AN158" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN154">
+  <autoFilter ref="A1:AN158">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20210,7 +20715,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI153">
+  <conditionalFormatting sqref="A2:AI157">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
